--- a/data/tower_count/tower_count_2002.xlsx
+++ b/data/tower_count/tower_count_2002.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58078885-8792-4F99-83A8-3C4976058B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,6 +135,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,9 +219,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +502,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41436</v>
+        <v>37418</v>
       </c>
       <c r="B4">
         <v>94</v>
@@ -479,7 +522,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41438</v>
+        <v>37420</v>
       </c>
       <c r="B5">
         <v>130</v>
@@ -499,7 +542,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41440</v>
+        <v>37422</v>
       </c>
       <c r="B6">
         <v>99</v>
@@ -519,7 +562,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41441</v>
+        <v>37423</v>
       </c>
       <c r="B7">
         <v>160</v>
@@ -539,7 +582,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41443</v>
+        <v>37425</v>
       </c>
       <c r="B8">
         <v>130</v>
@@ -559,7 +602,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41444</v>
+        <v>37426</v>
       </c>
       <c r="B9">
         <v>119</v>
@@ -576,7 +619,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41445</v>
+        <v>37427</v>
       </c>
       <c r="B10">
         <v>112</v>
@@ -593,7 +636,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41446</v>
+        <v>37428</v>
       </c>
       <c r="B11">
         <v>120</v>
@@ -610,7 +653,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41447</v>
+        <v>37429</v>
       </c>
       <c r="B12">
         <v>154</v>
@@ -631,7 +674,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41448</v>
+        <v>37430</v>
       </c>
       <c r="B13">
         <v>150</v>
@@ -654,7 +697,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41449</v>
+        <v>37431</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -674,7 +717,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41450</v>
+        <v>37432</v>
       </c>
       <c r="B15">
         <v>120</v>
@@ -694,7 +737,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41451</v>
+        <v>37433</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -717,7 +760,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41454</v>
+        <v>37436</v>
       </c>
       <c r="B17">
         <v>109</v>
@@ -737,7 +780,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41455</v>
+        <v>37437</v>
       </c>
       <c r="B18">
         <v>158</v>
@@ -757,7 +800,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41456</v>
+        <v>37438</v>
       </c>
       <c r="B19">
         <v>210</v>
@@ -777,7 +820,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41457</v>
+        <v>37439</v>
       </c>
       <c r="B20">
         <v>123</v>
@@ -797,7 +840,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41462</v>
+        <v>37444</v>
       </c>
       <c r="B21">
         <v>145</v>
@@ -820,7 +863,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41463</v>
+        <v>37445</v>
       </c>
       <c r="B22">
         <v>165</v>
@@ -840,7 +883,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41464</v>
+        <v>37446</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -860,7 +903,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41465</v>
+        <v>37447</v>
       </c>
       <c r="B24">
         <v>170</v>
@@ -883,7 +926,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41466</v>
+        <v>37448</v>
       </c>
       <c r="B25">
         <v>181</v>
@@ -906,7 +949,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41467</v>
+        <v>37449</v>
       </c>
       <c r="B26">
         <v>189</v>
@@ -929,7 +972,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41468</v>
+        <v>37450</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -952,7 +995,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41469</v>
+        <v>37451</v>
       </c>
       <c r="B28">
         <v>170</v>
@@ -975,7 +1018,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41472</v>
+        <v>37454</v>
       </c>
       <c r="B29">
         <v>165</v>
@@ -1029,7 +1072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1041,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
